--- a/helloWorld2/ExampleLvL15(charSheet)Excel.xlsx
+++ b/helloWorld2/ExampleLvL15(charSheet)Excel.xlsx
@@ -9046,10 +9046,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9062,6 +9062,31 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>143</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
